--- a/Assets/06.Table/DarkAbil.xlsx
+++ b/Assets/06.Table/DarkAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B19817-6C9A-409D-87AE-6E77C2BAB5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6833BA4D-249D-4CBE-8CF7-14AAB69BD004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -105,15 +105,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나탄의 증표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오로치의 증표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구미호의 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타의 증표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>50</v>
